--- a/FIS/rel/rel_tests/rel_tri/rel_trimf_output.xlsx
+++ b/FIS/rel/rel_tests/rel_tri/rel_trimf_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\Final Year\Fuzzy_logic\cw\rel_tests\rel_tri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AA3BFC-4DB9-4DC4-9971-543C3B5B9AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E7E48-8CD8-4E13-98D0-8FB726D38AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="9765" xr2:uid="{DBAF3CF5-2B12-4B32-92E1-38786DB43149}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="26280" xr2:uid="{DBAF3CF5-2B12-4B32-92E1-38786DB43149}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47A6EED-6893-42AF-8732-525F9B88C4C7}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,521 +463,131 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6.3562745098039226</v>
-      </c>
-      <c r="B2">
-        <v>6.44</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6.2964100268576582</v>
-      </c>
-      <c r="B3">
-        <v>6.37</v>
-      </c>
-      <c r="C3">
-        <v>6.6849999999999996</v>
-      </c>
-      <c r="D3">
-        <v>6.37</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6.1728371710526373</v>
-      </c>
-      <c r="B4">
-        <v>6.16</v>
-      </c>
-      <c r="C4">
-        <v>6.3350000000000009</v>
-      </c>
-      <c r="D4">
-        <v>5.67</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
       <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5.000490977759128</v>
-      </c>
-      <c r="B5">
-        <v>4.97</v>
-      </c>
-      <c r="C5">
-        <v>4.9699999999999989</v>
-      </c>
-      <c r="D5">
-        <v>4.34</v>
-      </c>
-      <c r="E5">
-        <v>5.6</v>
-      </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5.0002861643475978</v>
-      </c>
-      <c r="B6">
-        <v>4.97</v>
-      </c>
-      <c r="C6">
-        <v>5.0049999999999999</v>
-      </c>
-      <c r="D6">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="E6">
-        <v>5.32</v>
-      </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5.0001960784313733</v>
-      </c>
-      <c r="B7">
-        <v>4.97</v>
-      </c>
-      <c r="C7">
-        <v>4.97</v>
-      </c>
-      <c r="D7">
-        <v>4.97</v>
-      </c>
-      <c r="E7">
-        <v>4.97</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5.0002861643475978</v>
-      </c>
-      <c r="B8">
-        <v>4.97</v>
-      </c>
-      <c r="C8">
-        <v>5.0049999999999999</v>
-      </c>
-      <c r="D8">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="E8">
-        <v>5.32</v>
-      </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5.000490977759128</v>
-      </c>
-      <c r="B9">
-        <v>4.97</v>
-      </c>
-      <c r="C9">
-        <v>4.9699999999999989</v>
-      </c>
-      <c r="D9">
-        <v>4.34</v>
-      </c>
-      <c r="E9">
-        <v>5.6</v>
-      </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4.000588235294118</v>
-      </c>
-      <c r="B10">
-        <v>3.99</v>
-      </c>
-      <c r="C10">
-        <v>3.9900000000000007</v>
-      </c>
-      <c r="D10">
-        <v>3.36</v>
-      </c>
-      <c r="E10">
-        <v>4.62</v>
-      </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4.0004724409448835</v>
-      </c>
-      <c r="B11">
-        <v>3.99</v>
-      </c>
-      <c r="C11">
-        <v>3.9899999999999993</v>
-      </c>
-      <c r="D11">
-        <v>3.71</v>
-      </c>
-      <c r="E11">
-        <v>4.2699999999999996</v>
-      </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4.0002869139258239</v>
-      </c>
-      <c r="B12">
-        <v>3.99</v>
-      </c>
-      <c r="C12">
-        <v>3.99</v>
-      </c>
-      <c r="D12">
-        <v>3.99</v>
-      </c>
-      <c r="E12">
-        <v>3.99</v>
-      </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2.9997130860741783</v>
-      </c>
-      <c r="B13">
-        <v>3.01</v>
-      </c>
-      <c r="C13">
-        <v>3.01</v>
-      </c>
-      <c r="D13">
-        <v>3.01</v>
-      </c>
-      <c r="E13">
-        <v>3.01</v>
-      </c>
       <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2.9997971536070667</v>
-      </c>
-      <c r="B14">
-        <v>3.01</v>
-      </c>
-      <c r="C14">
-        <v>3.0099999999999993</v>
-      </c>
-      <c r="D14">
-        <v>2.8</v>
-      </c>
-      <c r="E14">
-        <v>3.22</v>
-      </c>
       <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2.9997402093834817</v>
-      </c>
-      <c r="B15">
-        <v>3.01</v>
-      </c>
-      <c r="C15">
-        <v>3.01</v>
-      </c>
-      <c r="D15">
-        <v>2.59</v>
-      </c>
-      <c r="E15">
-        <v>3.43</v>
-      </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2.9994117647058847</v>
-      </c>
-      <c r="B16">
-        <v>3.01</v>
-      </c>
-      <c r="C16">
-        <v>3.01</v>
-      </c>
-      <c r="D16">
-        <v>2.38</v>
-      </c>
-      <c r="E16">
-        <v>3.64</v>
-      </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4.5621990759503923</v>
-      </c>
-      <c r="B17">
-        <v>4.76</v>
-      </c>
-      <c r="C17">
-        <v>5.0049999999999981</v>
-      </c>
-      <c r="D17">
-        <v>4.55</v>
-      </c>
-      <c r="E17">
-        <v>5.46</v>
-      </c>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5.0001960784313733</v>
-      </c>
-      <c r="B18">
-        <v>4.97</v>
-      </c>
-      <c r="C18">
-        <v>4.97</v>
-      </c>
-      <c r="D18">
-        <v>4.97</v>
-      </c>
-      <c r="E18">
-        <v>4.97</v>
-      </c>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5.2071770591388278</v>
-      </c>
-      <c r="B19">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="C19">
-        <v>5.0049999999999981</v>
-      </c>
-      <c r="D19">
-        <v>4.55</v>
-      </c>
-      <c r="E19">
-        <v>5.46</v>
-      </c>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6.1728371710526373</v>
-      </c>
-      <c r="B20">
-        <v>6.16</v>
-      </c>
-      <c r="C20">
-        <v>6.3350000000000009</v>
-      </c>
-      <c r="D20">
-        <v>5.67</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>6.2602308856926578</v>
-      </c>
-      <c r="B21">
-        <v>6.3</v>
-      </c>
-      <c r="C21">
-        <v>6.58</v>
-      </c>
-      <c r="D21">
-        <v>6.16</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6.3258870550805293</v>
-      </c>
-      <c r="B22">
-        <v>6.37</v>
-      </c>
-      <c r="C22">
-        <v>6.79</v>
-      </c>
-      <c r="D22">
-        <v>6.58</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4.0002869139258239</v>
-      </c>
-      <c r="B23">
-        <v>3.99</v>
-      </c>
-      <c r="C23">
-        <v>3.99</v>
-      </c>
-      <c r="D23">
-        <v>3.99</v>
-      </c>
-      <c r="E23">
-        <v>3.99</v>
-      </c>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2.9994117647058847</v>
-      </c>
-      <c r="B24">
-        <v>3.01</v>
-      </c>
-      <c r="C24">
-        <v>3.01</v>
-      </c>
-      <c r="D24">
-        <v>2.38</v>
-      </c>
-      <c r="E24">
-        <v>3.64</v>
-      </c>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3.5624483680246226</v>
-      </c>
-      <c r="B25">
-        <v>3.78</v>
-      </c>
-      <c r="C25">
-        <v>3.9900000000000015</v>
-      </c>
-      <c r="D25">
-        <v>3.5</v>
-      </c>
-      <c r="E25">
-        <v>4.4800000000000004</v>
-      </c>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4.1865384615384658</v>
-      </c>
-      <c r="B26">
-        <v>4.13</v>
-      </c>
-      <c r="C26">
-        <v>3.9900000000000015</v>
-      </c>
-      <c r="D26">
-        <v>3.5</v>
-      </c>
-      <c r="E26">
-        <v>4.4800000000000004</v>
-      </c>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>4.000588235294118</v>
-      </c>
-      <c r="B27">
-        <v>3.99</v>
-      </c>
-      <c r="C27">
-        <v>3.9900000000000007</v>
-      </c>
-      <c r="D27">
-        <v>3.36</v>
-      </c>
-      <c r="E27">
-        <v>4.62</v>
-      </c>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27" s="2" t="s">
         <v>10</v>
       </c>
